--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17040"/>
+    <workbookView windowWidth="30940" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <t>年齡</t>
   </si>
   <si>
-    <t>學期總成績</t>
+    <t>學籍總成績</t>
   </si>
   <si>
     <t>小明</t>
